--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -15,17 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Source:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Note:</t>
   </si>
   <si>
-    <t>You may use this variable to specify the electricity generating capacity</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -56,23 +50,98 @@
     <t>BPMCCS BAU Policy Mandated Capacity Construction Schedule</t>
   </si>
   <si>
-    <t>None (The U.S. does not have a PMCCS in the BAU case.)</t>
-  </si>
-  <si>
-    <t>in MW that will be built each year in the BAU case before the model</t>
-  </si>
-  <si>
-    <t>considers what else to build in order to satisfy demand, satisfy an</t>
-  </si>
-  <si>
-    <t>RPS, etc.</t>
+    <t>The purpose of this variable is to specify the electricity generating capacity</t>
+  </si>
+  <si>
+    <t>in MW that will be built each year in the BAU case before the model considers</t>
+  </si>
+  <si>
+    <t>what else to build in order to satisfy demand, satisfy an RPS (in the policy</t>
+  </si>
+  <si>
+    <t>case), etc.</t>
+  </si>
+  <si>
+    <t>For the United States, we use this schedule to ensure at least as much wind and</t>
+  </si>
+  <si>
+    <t>solar are built in 2013 and 2014 as was actually observed, which was due in part</t>
+  </si>
+  <si>
+    <t>to particular state-level policies and not pure economic factors.</t>
+  </si>
+  <si>
+    <t>Using this variable is also helpful because it allows us to build more wind than</t>
+  </si>
+  <si>
+    <t>would normally be allowed by the maximum allowable growth rate, without</t>
+  </si>
+  <si>
+    <t>raising that growth rate (which would harm model realism in later years, when</t>
+  </si>
+  <si>
+    <t>higher maximum growth rates are less realistic).</t>
+  </si>
+  <si>
+    <t>solar capacity constructed in 2013</t>
+  </si>
+  <si>
+    <t>solar capacity constructed in 2014</t>
+  </si>
+  <si>
+    <t>wind capacity constructed in 2013</t>
+  </si>
+  <si>
+    <t>wind capacity constructed in 2014</t>
+  </si>
+  <si>
+    <t>Solar Energy Industries Association</t>
+  </si>
+  <si>
+    <t>Page 14, Utility Scale Solar</t>
+  </si>
+  <si>
+    <t>Page 10, Utility Scale Solar</t>
+  </si>
+  <si>
+    <t>U.S. Department of Energy</t>
+  </si>
+  <si>
+    <t>Page 3</t>
+  </si>
+  <si>
+    <t>U.S. Solar Market Insight Report, 2014 Year in Review</t>
+  </si>
+  <si>
+    <t>http://www.seia.org/sites/default/files/HOlFT6ym3i.pdf</t>
+  </si>
+  <si>
+    <t>U.S. Solar Market Insight Report, 2013 Year in Review</t>
+  </si>
+  <si>
+    <t>http://www.seia.org/sites/default/files/resources/5jBprenCY92013ye.pdf</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>2013 Wind Technologies Market Report</t>
+  </si>
+  <si>
+    <t>http://energy.gov/sites/prod/files/2014/08/f18/2013%20Wind%20Technologies%20Market%20Report_1.pdf</t>
+  </si>
+  <si>
+    <t>http://energy.gov/sites/prod/files/2015/08/f25/2014-Wind-Technologies-Market-Report-8.7.pdf</t>
+  </si>
+  <si>
+    <t>2014 Wind Technologies Market Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +157,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,14 +189,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -121,6 +212,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,51 +507,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B28" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -477,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -536,7 +829,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -595,7 +888,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -654,7 +947,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -713,7 +1006,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -772,13 +1065,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4854</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -831,13 +1124,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2847</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3934</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -890,7 +1183,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -949,7 +1242,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,16 +522,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -583,8 +583,68 @@
       <c r="Q1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -636,8 +696,68 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -689,8 +809,68 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -742,8 +922,68 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -795,8 +1035,68 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -848,8 +1148,68 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -901,8 +1261,68 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -954,8 +1374,68 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1487,68 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1060,8 +1600,68 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1113,8 +1713,68 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1164,6 +1824,66 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Note:</t>
   </si>
@@ -23,18 +23,12 @@
     <t>Year</t>
   </si>
   <si>
-    <t>coal (MW)</t>
-  </si>
-  <si>
     <t>nuclear (MW)</t>
   </si>
   <si>
     <t>hydro (MW)</t>
   </si>
   <si>
-    <t>wind (MW)</t>
-  </si>
-  <si>
     <t>solar PV (MW)</t>
   </si>
   <si>
@@ -81,6 +75,18 @@
   </si>
   <si>
     <t>case, so we set this variable to zero.</t>
+  </si>
+  <si>
+    <t>lignite (MW)</t>
+  </si>
+  <si>
+    <t>hard coal (MW)</t>
+  </si>
+  <si>
+    <t>onshore wind (MW)</t>
+  </si>
+  <si>
+    <t>offshore wind (MW)</t>
   </si>
 </sst>
 </file>
@@ -439,20 +445,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,22 +471,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,12 +494,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,13 +528,13 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -646,7 +652,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -759,7 +765,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -872,7 +878,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -985,7 +991,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1098,7 +1104,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1211,7 +1217,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1324,7 +1330,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1550,7 +1556,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1663,7 +1669,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1776,7 +1782,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1884,6 +1890,232 @@
         <v>0</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BPMCCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
   </bookViews>
@@ -15,29 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Note:</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>nuclear (MW)</t>
-  </si>
-  <si>
-    <t>hydro (MW)</t>
-  </si>
-  <si>
-    <t>solar PV (MW)</t>
-  </si>
-  <si>
-    <t>solar thermal (MW)</t>
-  </si>
-  <si>
-    <t>biomass (MW)</t>
-  </si>
-  <si>
     <t>BPMCCS BAU Policy Mandated Capacity Construction Schedule</t>
   </si>
   <si>
@@ -56,18 +43,6 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>natural gas nonpeaker (MW)</t>
-  </si>
-  <si>
-    <t>geothermal (MW)</t>
-  </si>
-  <si>
-    <t>petroleum (MW)</t>
-  </si>
-  <si>
-    <t>natural gas peaker (MW)</t>
-  </si>
-  <si>
     <t>none needed</t>
   </si>
   <si>
@@ -77,22 +52,61 @@
     <t>case, so we set this variable to zero.</t>
   </si>
   <si>
-    <t>lignite (MW)</t>
-  </si>
-  <si>
-    <t>hard coal (MW)</t>
-  </si>
-  <si>
-    <t>onshore wind (MW)</t>
-  </si>
-  <si>
-    <t>offshore wind (MW)</t>
+    <t>Mandated Construction (MW)</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>solar PV</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,15 +464,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,22 +485,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,12 +508,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,18 +542,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -652,7 +668,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -765,7 +781,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -878,7 +894,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -991,7 +1007,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1104,7 +1120,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1217,7 +1233,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1330,7 +1346,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1443,7 +1459,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1556,7 +1572,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1669,7 +1685,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1782,7 +1798,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1895,7 +1911,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2116,6 +2132,345 @@
         <v>0</v>
       </c>
       <c r="AK14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>0</v>
       </c>
     </row>
